--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15951768</t>
+          <t>15895331</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3800202</t>
+          <t>3925582</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80.76038997629097</t>
+          <t>80.19474683128875</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19.239610023709027</t>
+          <t>19.80525316871125</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18801210</t>
+          <t>16896316</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5482584</t>
+          <t>4111868</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>77.42286893061274</t>
+          <t>80.42730394973692</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22.577131069387264</t>
+          <t>19.57269605026308</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2050756</t>
+          <t>2087316</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3670781</t>
+          <t>2185975</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80.76802942196571</t>
+          <t>80.663968323212</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>85.83686520808759</t>
+          <t>85.22504159376307</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.68035856231538</t>
+          <t>2.39691378931613</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2207058</t>
+          <t>2165612</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>535605</t>
+          <t>561111</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>80.47135211289174</t>
+          <t>79.42178211721543</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.52864788710826</t>
+          <t>20.578217882784575</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2499573</t>
+          <t>2282682</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>844148</t>
+          <t>585192</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>74.75423338251008</t>
+          <t>79.59491944206754</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>25.245766617489917</t>
+          <t>20.40508055793246</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>290006</t>
+          <t>297030</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>590540</t>
+          <t>310011</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>48697</t>
+          <t>46056</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>41424</t>
+          <t>41941</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>54.035130546709425</t>
+          <t>52.33814789140539</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>45.964869453290575</t>
+          <t>47.66185210859461</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>50713</t>
+          <t>47490</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>42417</t>
+          <t>42694</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>54.453989047567916</t>
+          <t>52.65900824980041</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>45.546010952432084</t>
+          <t>47.34099175019959</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23476</t>
+          <t>28344</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24040</t>
+          <t>28908</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1116</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>858</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>53.46038114343029</t>
+          <t>56.53495440729483</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>46.53961885656971</t>
+          <t>43.46504559270517</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>1121</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>862</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>53.320053120849934</t>
+          <t>56.53050932929904</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>46.679946879150066</t>
+          <t>43.46949067070096</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>817</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>820</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>62413</t>
+          <t>58314</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30298</t>
+          <t>29770</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>67.31995124634618</t>
+          <t>66.20271558966441</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>32.68004875365383</t>
+          <t>33.797284410335585</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>65055</t>
+          <t>60978</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31836</t>
+          <t>31194</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>67.14245905192433</t>
+          <t>66.15675042312199</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>32.85754094807567</t>
+          <t>33.84324957687801</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>9809</t>
+          <t>9761</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10048</t>
+          <t>10034</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>71.30922087369568</t>
+          <t>70.96798475711202</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>69.81538406883575</t>
+          <t>69.72874818540512</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2.25044333926603</t>
+          <t>2.05285523671188</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>67.10831482852208</t>
+          <t>64.87176781002638</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>74.38009971302749</t>
+          <t>72.47415057517243</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2.06787014228464</t>
+          <t>1.94543324764911</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>73.21428571428571</t>
+          <t>87.05882352941177</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>26.785714285714285</t>
+          <t>12.941176470588236</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>149</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>73.04347826086956</t>
+          <t>87.13450292397661</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>26.956521739130434</t>
+          <t>12.865497076023392</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>75.67567567567568</t>
+          <t>76.431718061674</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>67.11822660098522</t>
+          <t>67.98603026775321</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.76948051948052</t>
+          <t>1.68299711815562</t>
         </is>
       </c>
     </row>
